--- a/nmadb/501403.xlsx
+++ b/nmadb/501403.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7290" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7290" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -137,15 +137,6 @@
   </si>
   <si>
     <t>FOR/BUD 9/320</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>se1</t>
-  </si>
-  <si>
-    <t>se2</t>
   </si>
   <si>
     <t xml:space="preserve">NR </t>
@@ -169,18 +160,6 @@
       </rPr>
       <t xml:space="preserve">: Survival </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD1 (t1 vs. t2) </t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>SMD2 (t1 vs. t3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD3 (t2 vs. t3) </t>
   </si>
   <si>
     <t>CALGB 9011</t>
@@ -437,11 +416,20 @@
   <si>
     <t>Knauf</t>
   </si>
+  <si>
+    <t>effect=SMD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
@@ -717,7 +705,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,24 +826,25 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -873,7 +862,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -947,7 +936,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -982,7 +970,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1158,35 +1145,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="24" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="7"/>
     <col min="4" max="4" width="18.140625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="7.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="7"/>
-    <col min="11" max="11" width="15.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="5" max="8" width="7.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="7"/>
+    <col min="13" max="13" width="15.85546875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1203,40 +1190,32 @@
         <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -1247,32 +1226,34 @@
       <c r="E2" s="33">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="16">
+        <v>0.16</v>
+      </c>
       <c r="G2" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="H2" s="16">
         <v>0.03</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="4"/>
-      <c r="M2" s="19" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="20">
-        <v>1</v>
-      </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="8">
         <v>2000</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
@@ -1283,30 +1264,32 @@
       <c r="E3" s="33">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="16">
+        <v>0.17</v>
+      </c>
       <c r="G3" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="H3" s="16">
         <v>0.04</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23">
+      <c r="H3" s="10"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23">
         <v>2</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="8">
         <v>1991</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="35">
         <v>3</v>
@@ -1317,25 +1300,27 @@
       <c r="E4" s="33">
         <v>4</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="36">
+      <c r="F4" s="36">
         <v>0.13</v>
       </c>
-      <c r="H4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26">
+      <c r="G4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26">
         <v>3</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="Q4" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="8">
         <v>2007</v>
       </c>
@@ -1351,25 +1336,27 @@
       <c r="E5" s="33">
         <v>4</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="10"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="23">
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="23">
         <v>4</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="Q5" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="8">
         <v>2002</v>
       </c>
@@ -1385,25 +1372,27 @@
       <c r="E6" s="33">
         <v>4</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="36">
+        <v>0.2</v>
+      </c>
       <c r="G6" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="36">
         <v>0.03</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="10"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26">
+      <c r="H6" s="11"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="10"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26">
         <v>5</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="Q6" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="8">
         <v>2007</v>
       </c>
@@ -1419,25 +1408,27 @@
       <c r="E7" s="33">
         <v>4</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="36">
+      <c r="F7" s="36">
         <v>0.15</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="10"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="23">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="23">
         <v>6</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="Q7" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1">
       <c r="A8" s="8">
         <v>2003</v>
       </c>
@@ -1453,32 +1444,34 @@
       <c r="E8" s="35">
         <v>6</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="F8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="35"/>
       <c r="I8" s="17"/>
       <c r="J8" s="37"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31">
+      <c r="K8" s="17"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31">
         <v>7</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="Q8" s="32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="8">
         <v>2009</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="35">
         <v>8</v>
       </c>
       <c r="D9" s="11">
@@ -1487,428 +1480,609 @@
       <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="54"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="38">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>7</v>
       </c>
-      <c r="G9" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="17">
+      <c r="F10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="38">
-        <v>9</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10">
-        <v>7</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0.08</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="G10" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="8">
         <v>2008</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
       <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="36">
-        <v>0.18</v>
-      </c>
-      <c r="H11" s="36">
-        <v>0.02</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="17"/>
       <c r="J11" s="37"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="K11" s="17"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="4"/>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="8">
         <v>2008</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="38">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
       </c>
       <c r="E12" s="10">
+        <v>7</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="38">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>3</v>
       </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0.17</v>
-      </c>
-      <c r="H12" s="36">
+      <c r="F13" s="36">
+        <v>0.18</v>
+      </c>
+      <c r="G13" s="36">
         <v>0.02</v>
       </c>
-      <c r="I12" s="36">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
-      <c r="A13" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="38">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="36">
-        <v>0.18</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0.02</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="H13" s="10"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="8">
         <v>2008</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="38">
+        <v>11</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="38">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="A16" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="38">
+        <v>12</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.18</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C17" s="38">
         <v>13</v>
       </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
         <v>2</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="36">
+      <c r="F17" s="36">
         <v>0.16</v>
       </c>
-      <c r="H14" s="36">
+      <c r="G17" s="36">
         <v>0.03</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="A15" s="8">
+      <c r="H17" s="10"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="8">
         <v>2010</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C18" s="10">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F18" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="A19" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
         <v>2</v>
       </c>
-      <c r="G15" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="16">
+      <c r="F19" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="G19" s="16">
         <v>0.02</v>
       </c>
-      <c r="I15" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
-      <c r="A16" s="8">
+      <c r="H19" s="10"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="A20" s="8">
         <v>2010</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C20" s="10">
         <v>15</v>
       </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="A21" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10">
+        <v>15</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10">
         <v>3</v>
       </c>
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="16">
+      <c r="F21" s="16">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H16" s="16">
+      <c r="G21" s="16">
         <v>0.03</v>
       </c>
-      <c r="I16" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="7" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="2:9">
       <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="3:9" ht="15" customHeight="1">
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="3:11">
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="3:9">
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="3:11">
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="3:9">
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="3:11">
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="3:9" ht="15" customHeight="1">
+      <c r="H35" s="10"/>
+      <c r="I35" s="11"/>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="3:11">
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="3:9">
-      <c r="C37" s="10"/>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="3:11">
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="10"/>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="3:11" ht="15" customHeight="1">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="3:9">
-      <c r="C39" s="10"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="3:11">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="3:9">
-      <c r="C40" s="10"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="3:11">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="3:9">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="3:11" ht="15" customHeight="1">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-      <c r="G41" s="11"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
       <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="3:9" ht="15" customHeight="1">
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="11"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="11"/>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="11"/>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="11"/>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="3:11" ht="15" customHeight="1">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="11"/>
+      <c r="K47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1922,14 +2096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="43" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="42" customWidth="1"/>
@@ -1953,71 +2127,71 @@
         <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="L1" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="M1" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="50" t="s">
-        <v>110</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="T1" s="12"/>
       <c r="U1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="43" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C2" s="42">
         <v>1</v>
@@ -2077,7 +2251,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" s="42">
         <v>2</v>
@@ -2107,10 +2281,10 @@
         <v>0.28867513500000003</v>
       </c>
       <c r="U3" s="40" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="V3" s="53" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="X3"/>
     </row>
@@ -2119,7 +2293,7 @@
         <v>1991</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" s="42">
         <v>3</v>
@@ -2152,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="X4"/>
     </row>
@@ -2161,7 +2335,7 @@
         <v>2006</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" s="42">
         <v>4</v>
@@ -2194,7 +2368,7 @@
         <v>2</v>
       </c>
       <c r="V5" s="49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="X5"/>
     </row>
@@ -2203,7 +2377,7 @@
         <v>1997</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C6" s="42">
         <v>5</v>
@@ -2236,7 +2410,7 @@
         <v>3</v>
       </c>
       <c r="V6" s="49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X6"/>
     </row>
@@ -2245,7 +2419,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="42">
         <v>6</v>
@@ -2299,7 +2473,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="49" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X7"/>
     </row>
@@ -2308,7 +2482,7 @@
         <v>2000</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="42">
         <v>7</v>
@@ -2341,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="V8" s="49" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="X8"/>
     </row>
@@ -2350,7 +2524,7 @@
         <v>2006</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" s="42">
         <v>8</v>
@@ -2398,7 +2572,7 @@
         <v>6</v>
       </c>
       <c r="V9" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X9"/>
     </row>
@@ -2407,7 +2581,7 @@
         <v>2007</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="42">
         <v>9</v>
@@ -2440,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="X10"/>
     </row>
@@ -2449,7 +2623,7 @@
         <v>1991</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C11" s="42">
         <v>10</v>
@@ -2482,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="V11" s="49" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X11"/>
     </row>
@@ -2491,7 +2665,7 @@
         <v>1991</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C12" s="42">
         <v>11</v>
@@ -2524,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="X12"/>
     </row>
@@ -2533,7 +2707,7 @@
         <v>1991</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C13" s="42">
         <v>12</v>
@@ -2566,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="V13" s="49" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="X13"/>
     </row>
@@ -2575,7 +2749,7 @@
         <v>1988</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="42">
         <v>13</v>
@@ -2608,7 +2782,7 @@
         <v>11</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="X14"/>
     </row>
@@ -2617,7 +2791,7 @@
         <v>1991</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C15" s="42">
         <v>14</v>
@@ -2650,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="V15" s="49" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="X15"/>
     </row>
@@ -2659,7 +2833,7 @@
         <v>1990</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" s="42">
         <v>15</v>
@@ -2692,7 +2866,7 @@
         <v>13</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X16"/>
     </row>
@@ -2701,7 +2875,7 @@
         <v>1994</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C17" s="42">
         <v>16</v>
@@ -2734,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="V17" s="49" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="X17"/>
     </row>
@@ -2743,7 +2917,7 @@
         <v>2001</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C18" s="42">
         <v>17</v>
@@ -2791,16 +2965,16 @@
         <v>15</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24" ht="19.5" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C19" s="42">
         <v>18</v>
@@ -2833,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2842,7 +3016,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C20" s="42">
         <v>19</v>
@@ -2875,7 +3049,7 @@
         <v>17</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2884,7 +3058,7 @@
         <v>2000</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C21" s="42">
         <v>20</v>
@@ -2917,7 +3091,7 @@
         <v>18</v>
       </c>
       <c r="V21" s="51" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2926,7 +3100,7 @@
         <v>2009</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C22" s="42">
         <v>21</v>
@@ -2959,7 +3133,7 @@
         <v>19</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2968,7 +3142,7 @@
         <v>2010</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C23" s="42">
         <v>22</v>
@@ -3001,7 +3175,7 @@
         <v>20</v>
       </c>
       <c r="V23" s="49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="X23"/>
     </row>
@@ -3010,7 +3184,7 @@
         <v>2010</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C24" s="42">
         <v>23</v>
@@ -3043,7 +3217,7 @@
         <v>21</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="X24"/>
     </row>
@@ -3052,7 +3226,7 @@
         <v>2006</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C25" s="42">
         <v>24</v>
@@ -3084,10 +3258,10 @@
     </row>
     <row r="26" spans="1:24">
       <c r="U26" s="40" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="V26" s="52" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="W26" s="53"/>
       <c r="X26"/>
@@ -3099,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="49" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="X27"/>
     </row>
@@ -3110,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="X28"/>
     </row>
@@ -3121,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="V29" s="49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="X29"/>
     </row>
@@ -3132,7 +3306,7 @@
         <v>4</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="X30"/>
     </row>
@@ -3143,7 +3317,7 @@
         <v>5</v>
       </c>
       <c r="V31" s="49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="X31"/>
     </row>
@@ -3154,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="V32" s="49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="X32"/>
     </row>
@@ -3165,7 +3339,7 @@
         <v>7</v>
       </c>
       <c r="V33" s="49" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="X33"/>
     </row>
@@ -3176,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="V34" s="49" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X34"/>
     </row>
@@ -3187,7 +3361,7 @@
         <v>9</v>
       </c>
       <c r="V35" s="49" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="X35"/>
     </row>
@@ -3198,7 +3372,7 @@
         <v>10</v>
       </c>
       <c r="V36" s="49" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3217,12 +3391,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
